--- a/副業紹介サイト設計書(簡易版).xlsx
+++ b/副業紹介サイト設計書(簡易版).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\共有フォルダ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="906" documentId="10_ncr:8100000_{93759546-6B18-4329-A433-11B4B797C2D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{09534F7C-CF1C-432D-8C89-6BA57CB6E07D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20879994-A6F3-4068-AF48-36BCB42D8D1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" activeTab="3" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -1236,12 +1236,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1266,31 +1260,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,16 +1326,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6877,7 +6877,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17747,11 +17747,81 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="R50:AB50"/>
-    <mergeCell ref="R51:AB51"/>
-    <mergeCell ref="R52:AB52"/>
-    <mergeCell ref="R53:AB53"/>
-    <mergeCell ref="R54:AB54"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:AB39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:AB40"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:AB37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:AB38"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:AB35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:AB36"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:AB34"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="R32:AB32"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:AB33"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:AB29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:AB30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:AB31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="L43:O43"/>
@@ -17768,81 +17838,11 @@
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:AB29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:AB30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:AB31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:AB32"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:AB33"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:AB34"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:AB35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:AB36"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:AB37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:AB38"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:AB39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:AB40"/>
+    <mergeCell ref="R50:AB50"/>
+    <mergeCell ref="R51:AB51"/>
+    <mergeCell ref="R52:AB52"/>
+    <mergeCell ref="R53:AB53"/>
+    <mergeCell ref="R54:AB54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17910,7 +17910,9 @@
   </sheetPr>
   <dimension ref="B2:AV80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="96" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17995,13 +17997,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="51" t="s">
@@ -18018,11 +18020,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="28"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="28"/>
       <c r="M10" s="12"/>
       <c r="N10" s="55"/>
@@ -18069,7 +18071,7 @@
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
-      <c r="R12" s="69"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="51" t="s">
@@ -18097,7 +18099,7 @@
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
-      <c r="R13" s="70"/>
+      <c r="R13" s="90"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
       <c r="U13" s="55"/>
@@ -18147,13 +18149,13 @@
       <c r="M15" s="30"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="61" t="s">
+      <c r="U15" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="71"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="91"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="51" t="s">
@@ -18184,11 +18186,11 @@
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="72"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="92"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="55"/>
@@ -18295,13 +18297,13 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="75"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="77"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="51" t="s">
@@ -18325,10 +18327,10 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="78"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -18391,7 +18393,7 @@
       <c r="AC24" s="52"/>
       <c r="AD24" s="52"/>
       <c r="AE24" s="52"/>
-      <c r="AF24" s="59"/>
+      <c r="AF24" s="75"/>
       <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18419,7 +18421,7 @@
       <c r="AC25" s="56"/>
       <c r="AD25" s="56"/>
       <c r="AE25" s="56"/>
-      <c r="AF25" s="60"/>
+      <c r="AF25" s="76"/>
       <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18479,7 +18481,7 @@
       <c r="AC27" s="52"/>
       <c r="AD27" s="52"/>
       <c r="AE27" s="52"/>
-      <c r="AF27" s="59"/>
+      <c r="AF27" s="75"/>
       <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18506,7 +18508,7 @@
       <c r="AC28" s="56"/>
       <c r="AD28" s="56"/>
       <c r="AE28" s="56"/>
-      <c r="AF28" s="60"/>
+      <c r="AF28" s="76"/>
       <c r="AV28" s="21"/>
     </row>
     <row r="29" spans="3:48" x14ac:dyDescent="0.45">
@@ -18523,7 +18525,7 @@
       <c r="V30" s="52"/>
       <c r="W30" s="52"/>
       <c r="X30" s="52"/>
-      <c r="Y30" s="59"/>
+      <c r="Y30" s="75"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="31"/>
       <c r="AB30" s="79" t="s">
@@ -18535,13 +18537,13 @@
       <c r="AF30" s="87"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="73" t="s">
+      <c r="AI30" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="75"/>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="68"/>
+      <c r="AL30" s="68"/>
+      <c r="AM30" s="77"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="31"/>
       <c r="AP30" s="51" t="s">
@@ -18550,7 +18552,7 @@
       <c r="AQ30" s="52"/>
       <c r="AR30" s="52"/>
       <c r="AS30" s="52"/>
-      <c r="AT30" s="59"/>
+      <c r="AT30" s="75"/>
       <c r="AV30" s="21"/>
     </row>
     <row r="31" spans="3:48" x14ac:dyDescent="0.45">
@@ -18559,22 +18561,22 @@
       <c r="V31" s="56"/>
       <c r="W31" s="56"/>
       <c r="X31" s="56"/>
-      <c r="Y31" s="60"/>
+      <c r="Y31" s="76"/>
       <c r="AB31" s="83"/>
       <c r="AC31" s="84"/>
       <c r="AD31" s="84"/>
       <c r="AE31" s="84"/>
       <c r="AF31" s="88"/>
-      <c r="AI31" s="76"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
       <c r="AM31" s="78"/>
       <c r="AP31" s="55"/>
       <c r="AQ31" s="56"/>
       <c r="AR31" s="56"/>
       <c r="AS31" s="56"/>
-      <c r="AT31" s="60"/>
+      <c r="AT31" s="76"/>
       <c r="AV31" s="21"/>
     </row>
     <row r="32" spans="3:48" x14ac:dyDescent="0.45">
@@ -18585,36 +18587,36 @@
       <c r="O33" s="11"/>
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="61" t="s">
+      <c r="U33" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="V33" s="62"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="64"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="62"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="31"/>
-      <c r="AB33" s="61" t="s">
+      <c r="AB33" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="64"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="62"/>
       <c r="AV33" s="21"/>
     </row>
     <row r="34" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T34" s="6"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="68"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="68"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="66"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="66"/>
       <c r="AV34" s="21"/>
     </row>
     <row r="35" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18630,22 +18632,22 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="73" t="s">
+      <c r="U36" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="V36" s="74"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="90"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="70"/>
       <c r="AV36" s="21"/>
     </row>
     <row r="37" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T37" s="6"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="92"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T38" s="2"/>
@@ -18657,20 +18659,20 @@
     </row>
     <row r="39" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T39" s="4"/>
-      <c r="U39" s="73" t="s">
+      <c r="U39" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="V39" s="74"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="90"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="70"/>
     </row>
     <row r="40" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U40" s="76"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="92"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="74"/>
     </row>
     <row r="41" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U41" s="37"/>
@@ -18687,23 +18689,23 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="90"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="70"/>
       <c r="AV43" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="76"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="92"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="AV44" s="21"/>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.45">
@@ -18767,13 +18769,13 @@
       <c r="K49" s="3"/>
       <c r="L49" s="11"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="61" t="s">
+      <c r="N49" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="62"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="64"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="62"/>
       <c r="S49" s="4"/>
       <c r="T49" s="14"/>
       <c r="U49" s="51" t="s">
@@ -18795,11 +18797,11 @@
       <c r="K50" s="3"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="66"/>
       <c r="U50" s="55"/>
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
@@ -19033,13 +19035,13 @@
       <c r="K64" s="3"/>
       <c r="L64" s="11"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="61" t="s">
+      <c r="N64" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O64" s="62"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="64"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="62"/>
       <c r="S64" s="4"/>
       <c r="T64" s="14"/>
       <c r="U64" s="51" t="s">
@@ -19061,11 +19063,11 @@
       <c r="K65" s="3"/>
       <c r="L65" s="11"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="68"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="66"/>
       <c r="U65" s="55"/>
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
@@ -19274,11 +19276,34 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="N70:R71"/>
-    <mergeCell ref="U70:Y71"/>
-    <mergeCell ref="N73:R74"/>
-    <mergeCell ref="U73:Y74"/>
-    <mergeCell ref="G76:K77"/>
+    <mergeCell ref="G23:K24"/>
+    <mergeCell ref="U24:Y25"/>
+    <mergeCell ref="AB24:AF25"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="U12:Y13"/>
+    <mergeCell ref="U15:Y16"/>
+    <mergeCell ref="AP30:AT31"/>
+    <mergeCell ref="AB15:AF16"/>
+    <mergeCell ref="N18:R19"/>
+    <mergeCell ref="AB18:AF19"/>
+    <mergeCell ref="N21:R22"/>
+    <mergeCell ref="U21:Y22"/>
+    <mergeCell ref="U27:Y28"/>
+    <mergeCell ref="AB27:AF28"/>
+    <mergeCell ref="U30:Y31"/>
+    <mergeCell ref="AB30:AF31"/>
+    <mergeCell ref="AI30:AM31"/>
+    <mergeCell ref="N67:R68"/>
+    <mergeCell ref="U67:Y68"/>
+    <mergeCell ref="N52:R53"/>
+    <mergeCell ref="U52:Y53"/>
+    <mergeCell ref="N55:R56"/>
+    <mergeCell ref="U55:Y56"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="U58:Y59"/>
     <mergeCell ref="AB33:AF34"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="N61:R62"/>
@@ -19292,34 +19317,11 @@
     <mergeCell ref="N49:R50"/>
     <mergeCell ref="U49:Y50"/>
     <mergeCell ref="U39:Y40"/>
-    <mergeCell ref="N67:R68"/>
-    <mergeCell ref="U67:Y68"/>
-    <mergeCell ref="N52:R53"/>
-    <mergeCell ref="U52:Y53"/>
-    <mergeCell ref="N55:R56"/>
-    <mergeCell ref="U55:Y56"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="U58:Y59"/>
-    <mergeCell ref="AP30:AT31"/>
-    <mergeCell ref="AB15:AF16"/>
-    <mergeCell ref="N18:R19"/>
-    <mergeCell ref="AB18:AF19"/>
-    <mergeCell ref="N21:R22"/>
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="U27:Y28"/>
-    <mergeCell ref="AB27:AF28"/>
-    <mergeCell ref="U30:Y31"/>
-    <mergeCell ref="AB30:AF31"/>
-    <mergeCell ref="AI30:AM31"/>
-    <mergeCell ref="G23:K24"/>
-    <mergeCell ref="U24:Y25"/>
-    <mergeCell ref="AB24:AF25"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="G9:K10"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:R13"/>
-    <mergeCell ref="U12:Y13"/>
-    <mergeCell ref="U15:Y16"/>
+    <mergeCell ref="N70:R71"/>
+    <mergeCell ref="U70:Y71"/>
+    <mergeCell ref="N73:R74"/>
+    <mergeCell ref="U73:Y74"/>
+    <mergeCell ref="G76:K77"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/副業紹介サイト設計書(簡易版).xlsx
+++ b/副業紹介サイト設計書(簡易版).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\アプリ作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20879994-A6F3-4068-AF48-36BCB42D8D1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="10_ncr:8100000_{93759546-6B18-4329-A433-11B4B797C2D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{86C6E870-DE07-44DF-ACB7-118A05644D92}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" activeTab="3" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -54,8 +54,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'(8)受注者候補一覧画面'!$A$1:$AC$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'(9)やりたい案件一覧画面'!$A$1:$AC$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.画面遷移図(簡易版)'!$A$1:$AX$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.画面遷移図(詳細)'!$A$1:$AC$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">'3.変数一覧'!$A$1:$AC$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.画面遷移図(詳細)'!$A$1:$AC$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'3.変数一覧'!$A$1:$AC$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AC$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Gitインストール</t>
     <phoneticPr fontId="1"/>
@@ -453,40 +453,10 @@
     <t>(3)相手のプロフィール画面</t>
   </si>
   <si>
-    <t>(4)受注最終確認画面</t>
-  </si>
-  <si>
-    <t>(5)ログイン画面</t>
-  </si>
-  <si>
-    <t>(6)マイページ画面</t>
-  </si>
-  <si>
-    <t>(7)コイン購入/換金画面</t>
-  </si>
-  <si>
-    <t>(8)案件作成画面</t>
-  </si>
-  <si>
-    <t>(9)受注者候補一覧画面</t>
-  </si>
-  <si>
-    <t>(10)受注/発注一覧画面</t>
-  </si>
-  <si>
-    <t>(11)取引状況画面(受注)</t>
-  </si>
-  <si>
-    <t>(12)タスク詳細画面</t>
-  </si>
-  <si>
     <t>(13)中間成果物レビュー画面</t>
   </si>
   <si>
     <t>(14)最終成果物レビュー画面</t>
-  </si>
-  <si>
-    <t>(15)受注側からのレビュー画面</t>
   </si>
   <si>
     <t>(16)取引状況画面(発注)</t>
@@ -785,12 +755,71 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(4)応募最終確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)マイページ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7)案件作成画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(8)受注者候補一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(9)やりたい案件一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(10)プロフィール作成画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(11)受注/発注一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(12)取引状況画面(受注)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(15)双方レビュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERNAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANTEN_TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANKEN_TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +868,21 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1058,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1280,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1260,37 +1310,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,17 +1370,23 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1840,7 +1890,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>好きな食べ物はエッグタルトです。</a:t>
+            <a:t>趣味はスノボです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1848,15 +1898,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>レポートが大っ嫌いです。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>簡単なイラスト作成ならできます。</a:t>
+            <a:t>大学生で基本暇なので納期は順守します。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2123,8 +2165,28 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>発注中の案件一覧（押下でシーケンス画面に遷移します）</a:t>
+            <a:t>山田太郎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注中の案件一覧（押下でシーケンス画面に遷移します）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2136,7 +2198,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・「税金についてのレポート作成してください」</a:t>
+            <a:t>・「融資についてのレポート作成してください」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2377,8 +2439,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>半沢直樹さんとの取引画面</a:t>
+            <a:t>半沢直樹</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さんとの取引画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2452,7 +2526,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「税金についてのレポート作成してください」</a:t>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>融資</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>についてのレポート作成してください」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3069,7 +3167,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>一章の「税金の生い立ち」についての記載は非常によくできていると思います。</a:t>
+            <a:t>一章の「株式の生い立ち」についての記載は非常によくできていると思います。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3319,7 +3417,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>これで大学を卒業できそうです。</a:t>
+            <a:t>これでなんとか出向を回避できそうです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3586,7 +3684,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大学を卒業できそうとのこと、よかったです。</a:t>
+            <a:t>出向を回避できそうとのこと、よかったです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3725,8 +3823,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>山田太郎さんとの取引画面</a:t>
+            <a:t>山田太郎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さんとの取引画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3800,7 +3910,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「税金についてのレポート作成してください」</a:t>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>融資</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>についてのレポート作成してください」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5315,7 +5449,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日生まれの女です。</a:t>
+            <a:t>日生まれの男性です。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5323,7 +5457,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>好きな食べ物はエッグタルトです。</a:t>
+            <a:t>好きな食べ物はリンゴです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5339,7 +5473,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>イラスト作成なら得意です。</a:t>
+            <a:t>簡単なイラスト作成なら得意です。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5410,7 +5544,133 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>Ａ</a:t>
+            <a:t>Ｃ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B95DC2-A1BE-45CA-B45D-4F23BCFD6FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="662940"/>
+          <a:ext cx="1783080" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>夜神月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CD155F-692C-41F2-8018-4C8758E120C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="1188720"/>
+          <a:ext cx="1988820" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
+            <a:t>国籍：日本</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6877,7 +7137,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8772,7 +9032,7 @@
   <sheetData>
     <row r="2" spans="2:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9522,7 +9782,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10265,7 +10525,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11006,7 +11266,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11751,7 +12011,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12495,7 +12755,7 @@
   <sheetData>
     <row r="2" spans="2:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12531,7 +12791,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -12673,7 +12933,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -13813,7 +14073,7 @@
     <row r="18" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -14570,7 +14830,7 @@
     <row r="18" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -15156,7 +15416,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -15944,7 +16204,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -16086,7 +16346,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -16814,18 +17074,18 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E6CC63-337A-4021-ACF1-2E1D9D7AA0BB}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="B2:AB54"/>
+  <dimension ref="B2:AB48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="4.09765625" style="1"/>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -16852,71 +17112,83 @@
     </row>
     <row r="5" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E10" s="1" t="s">
-        <v>43</v>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E11" s="1" t="s">
-        <v>44</v>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="1" t="s">
-        <v>45</v>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E13" s="1" t="s">
-        <v>46</v>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E14" s="1" t="s">
-        <v>47</v>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="1" t="s">
-        <v>48</v>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
+    <row r="16" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="17" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E18" s="1" t="s">
-        <v>49</v>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E19" s="1" t="s">
-        <v>50</v>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -16925,8 +17197,8 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E20" s="1" t="s">
-        <v>51</v>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -16935,23 +17207,18 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E21" s="1" t="s">
-        <v>52</v>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E22" s="1" t="s">
-        <v>53</v>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E24" s="1" t="s">
-        <v>55</v>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -16961,828 +17228,663 @@
     </row>
     <row r="29" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="34"/>
-      <c r="C29" s="93" t="s">
-        <v>60</v>
+      <c r="C29" s="95" t="s">
+        <v>50</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="93" t="s">
-        <v>59</v>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="95" t="s">
+        <v>49</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="95"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="97"/>
       <c r="P29" s="93" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="93" t="s">
-        <v>57</v>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95" t="s">
+        <v>47</v>
       </c>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="95"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="97"/>
     </row>
     <row r="30" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="34">
         <v>1</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="95"/>
+      <c r="C30" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="97"/>
     </row>
     <row r="31" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="34">
         <v>2</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="95"/>
+      <c r="C31" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="97"/>
     </row>
     <row r="32" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="34">
         <v>3</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="95"/>
+      <c r="C32" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="97"/>
     </row>
     <row r="33" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="34">
         <v>4</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="97"/>
     </row>
     <row r="34" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="34">
         <v>5</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="96"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="97"/>
     </row>
     <row r="35" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="34">
+      <c r="B35" s="3"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+    </row>
+    <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="34"/>
+      <c r="C37" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="96"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="96"/>
+      <c r="AB37" s="97"/>
+    </row>
+    <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="34">
+        <v>1</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="96"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="96"/>
+      <c r="Z38" s="96"/>
+      <c r="AA38" s="96"/>
+      <c r="AB38" s="97"/>
+    </row>
+    <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="34">
+        <v>2</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="96"/>
+      <c r="AB39" s="97"/>
+    </row>
+    <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="34">
+        <v>3</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="96"/>
+      <c r="X40" s="96"/>
+      <c r="Y40" s="96"/>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="97"/>
+    </row>
+    <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="34">
+        <v>4</v>
+      </c>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="96"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="96"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AB41" s="97"/>
+    </row>
+    <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="34">
+        <v>5</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="96"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="97"/>
+    </row>
+    <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="34">
         <v>6</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="95"/>
-    </row>
-    <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="34">
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="97"/>
+    </row>
+    <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="34">
         <v>7</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="95"/>
-    </row>
-    <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="34">
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="97"/>
+    </row>
+    <row r="45" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="34">
         <v>8</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="95"/>
-    </row>
-    <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="34">
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="96"/>
+      <c r="W45" s="96"/>
+      <c r="X45" s="96"/>
+      <c r="Y45" s="96"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="97"/>
+    </row>
+    <row r="46" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="34">
         <v>9</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
-      <c r="AB38" s="95"/>
-    </row>
-    <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="34">
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="96"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="97"/>
+    </row>
+    <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="34">
         <v>10</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
-      <c r="AB39" s="95"/>
-    </row>
-    <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="34"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
-      <c r="AB40" s="95"/>
-    </row>
-    <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="3"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-    </row>
-    <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="34"/>
-      <c r="C43" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="94"/>
-      <c r="AA43" s="94"/>
-      <c r="AB43" s="95"/>
-    </row>
-    <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="34">
-        <v>1</v>
-      </c>
-      <c r="C44" s="93"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
-      <c r="AB44" s="95"/>
-    </row>
-    <row r="45" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="34">
-        <v>2</v>
-      </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="95"/>
-    </row>
-    <row r="46" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="34">
-        <v>3</v>
-      </c>
-      <c r="C46" s="93"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="95"/>
-    </row>
-    <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="34">
-        <v>4</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="94"/>
-      <c r="AA47" s="94"/>
-      <c r="AB47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="96"/>
+      <c r="Y47" s="96"/>
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AB47" s="97"/>
     </row>
     <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="34">
-        <v>5</v>
-      </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="94"/>
-      <c r="AA48" s="94"/>
-      <c r="AB48" s="95"/>
-    </row>
-    <row r="49" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="34">
-        <v>6</v>
-      </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="95"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="94"/>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="95"/>
-    </row>
-    <row r="50" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="34">
-        <v>7</v>
-      </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-      <c r="Z50" s="94"/>
-      <c r="AA50" s="94"/>
-      <c r="AB50" s="95"/>
-    </row>
-    <row r="51" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="34">
-        <v>8</v>
-      </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="94"/>
-      <c r="AA51" s="94"/>
-      <c r="AB51" s="95"/>
-    </row>
-    <row r="52" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="34">
-        <v>9</v>
-      </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="95"/>
-    </row>
-    <row r="53" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="34">
-        <v>10</v>
-      </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="95"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="94"/>
-      <c r="AA53" s="94"/>
-      <c r="AB53" s="95"/>
-    </row>
-    <row r="54" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="34"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="94"/>
-      <c r="AB54" s="95"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="96"/>
+      <c r="W48" s="96"/>
+      <c r="X48" s="96"/>
+      <c r="Y48" s="96"/>
+      <c r="Z48" s="96"/>
+      <c r="AA48" s="96"/>
+      <c r="AB48" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="72">
+    <mergeCell ref="R44:AB44"/>
+    <mergeCell ref="R45:AB45"/>
+    <mergeCell ref="R46:AB46"/>
+    <mergeCell ref="R47:AB47"/>
+    <mergeCell ref="R48:AB48"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="R37:AB37"/>
+    <mergeCell ref="R38:AB38"/>
+    <mergeCell ref="R39:AB39"/>
+    <mergeCell ref="R40:AB40"/>
+    <mergeCell ref="R41:AB41"/>
+    <mergeCell ref="R42:AB42"/>
+    <mergeCell ref="R43:AB43"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C38:K38"/>
     <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:AB39"/>
     <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:AB40"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:AB37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:AB38"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:AB35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:AB36"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:AB34"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="R32:AB32"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:AB33"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
     <mergeCell ref="L29:O29"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:AB29"/>
@@ -17797,52 +17899,17 @@
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="L32:O32"/>
     <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:AB43"/>
-    <mergeCell ref="R44:AB44"/>
-    <mergeCell ref="R45:AB45"/>
-    <mergeCell ref="R46:AB46"/>
-    <mergeCell ref="R47:AB47"/>
-    <mergeCell ref="R48:AB48"/>
-    <mergeCell ref="R49:AB49"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R50:AB50"/>
-    <mergeCell ref="R51:AB51"/>
-    <mergeCell ref="R52:AB52"/>
-    <mergeCell ref="R53:AB53"/>
-    <mergeCell ref="R54:AB54"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="R32:AB32"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:AB33"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:AB34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17910,9 +17977,7 @@
   </sheetPr>
   <dimension ref="B2:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="96" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17997,13 +18062,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="51" t="s">
@@ -18020,11 +18085,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="28"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="28"/>
       <c r="M10" s="12"/>
       <c r="N10" s="55"/>
@@ -18071,7 +18136,7 @@
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
-      <c r="R12" s="89"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="51" t="s">
@@ -18099,7 +18164,7 @@
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
-      <c r="R13" s="90"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
       <c r="U13" s="55"/>
@@ -18149,13 +18214,13 @@
       <c r="M15" s="30"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="59" t="s">
-        <v>63</v>
+      <c r="U15" s="61" t="s">
+        <v>53</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="91"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="71"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="51" t="s">
@@ -18186,11 +18251,11 @@
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="92"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="72"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="55"/>
@@ -18297,13 +18362,13 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="77"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="51" t="s">
@@ -18327,10 +18392,10 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="78"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -18393,7 +18458,7 @@
       <c r="AC24" s="52"/>
       <c r="AD24" s="52"/>
       <c r="AE24" s="52"/>
-      <c r="AF24" s="75"/>
+      <c r="AF24" s="59"/>
       <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18421,7 +18486,7 @@
       <c r="AC25" s="56"/>
       <c r="AD25" s="56"/>
       <c r="AE25" s="56"/>
-      <c r="AF25" s="76"/>
+      <c r="AF25" s="60"/>
       <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18467,7 +18532,7 @@
       <c r="R27" s="11"/>
       <c r="T27" s="4"/>
       <c r="U27" s="79" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="V27" s="80"/>
       <c r="W27" s="81"/>
@@ -18481,7 +18546,7 @@
       <c r="AC27" s="52"/>
       <c r="AD27" s="52"/>
       <c r="AE27" s="52"/>
-      <c r="AF27" s="75"/>
+      <c r="AF27" s="59"/>
       <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18508,7 +18573,7 @@
       <c r="AC28" s="56"/>
       <c r="AD28" s="56"/>
       <c r="AE28" s="56"/>
-      <c r="AF28" s="76"/>
+      <c r="AF28" s="60"/>
       <c r="AV28" s="21"/>
     </row>
     <row r="29" spans="3:48" x14ac:dyDescent="0.45">
@@ -18520,16 +18585,16 @@
       <c r="E30" s="3"/>
       <c r="T30" s="4"/>
       <c r="U30" s="51" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="V30" s="52"/>
       <c r="W30" s="52"/>
       <c r="X30" s="52"/>
-      <c r="Y30" s="75"/>
+      <c r="Y30" s="59"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="31"/>
       <c r="AB30" s="79" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC30" s="80"/>
       <c r="AD30" s="80"/>
@@ -18537,13 +18602,13 @@
       <c r="AF30" s="87"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="67" t="s">
+      <c r="AI30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AJ30" s="68"/>
-      <c r="AK30" s="68"/>
-      <c r="AL30" s="68"/>
-      <c r="AM30" s="77"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="75"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="31"/>
       <c r="AP30" s="51" t="s">
@@ -18552,7 +18617,7 @@
       <c r="AQ30" s="52"/>
       <c r="AR30" s="52"/>
       <c r="AS30" s="52"/>
-      <c r="AT30" s="75"/>
+      <c r="AT30" s="59"/>
       <c r="AV30" s="21"/>
     </row>
     <row r="31" spans="3:48" x14ac:dyDescent="0.45">
@@ -18561,22 +18626,22 @@
       <c r="V31" s="56"/>
       <c r="W31" s="56"/>
       <c r="X31" s="56"/>
-      <c r="Y31" s="76"/>
+      <c r="Y31" s="60"/>
       <c r="AB31" s="83"/>
       <c r="AC31" s="84"/>
       <c r="AD31" s="84"/>
       <c r="AE31" s="84"/>
       <c r="AF31" s="88"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="72"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
       <c r="AM31" s="78"/>
       <c r="AP31" s="55"/>
       <c r="AQ31" s="56"/>
       <c r="AR31" s="56"/>
       <c r="AS31" s="56"/>
-      <c r="AT31" s="76"/>
+      <c r="AT31" s="60"/>
       <c r="AV31" s="21"/>
     </row>
     <row r="32" spans="3:48" x14ac:dyDescent="0.45">
@@ -18587,36 +18652,36 @@
       <c r="O33" s="11"/>
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="59" t="s">
-        <v>69</v>
+      <c r="U33" s="61" t="s">
+        <v>59</v>
       </c>
-      <c r="V33" s="60"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="64"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="31"/>
-      <c r="AB33" s="59" t="s">
+      <c r="AB33" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="64"/>
       <c r="AV33" s="21"/>
     </row>
     <row r="34" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T34" s="6"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="66"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="66"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="68"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="68"/>
       <c r="AV34" s="21"/>
     </row>
     <row r="35" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18632,22 +18697,22 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="67" t="s">
-        <v>66</v>
+      <c r="U36" s="73" t="s">
+        <v>56</v>
       </c>
-      <c r="V36" s="68"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="70"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="90"/>
       <c r="AV36" s="21"/>
     </row>
     <row r="37" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T37" s="6"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="74"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="92"/>
     </row>
     <row r="38" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T38" s="2"/>
@@ -18659,20 +18724,20 @@
     </row>
     <row r="39" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T39" s="4"/>
-      <c r="U39" s="67" t="s">
-        <v>67</v>
+      <c r="U39" s="73" t="s">
+        <v>57</v>
       </c>
-      <c r="V39" s="68"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="70"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="90"/>
     </row>
     <row r="40" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U40" s="71"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="74"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+      <c r="Y40" s="92"/>
     </row>
     <row r="41" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U41" s="37"/>
@@ -18689,23 +18754,23 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="67" t="s">
-        <v>67</v>
+      <c r="C43" s="73" t="s">
+        <v>57</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="90"/>
       <c r="AV43" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="92"/>
       <c r="AV44" s="21"/>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.45">
@@ -18718,7 +18783,7 @@
       <c r="E46" s="30"/>
       <c r="F46" s="31"/>
       <c r="G46" s="43" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
@@ -18769,13 +18834,13 @@
       <c r="K49" s="3"/>
       <c r="L49" s="11"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="59" t="s">
+      <c r="N49" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="60"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="64"/>
       <c r="S49" s="4"/>
       <c r="T49" s="14"/>
       <c r="U49" s="51" t="s">
@@ -18797,11 +18862,11 @@
       <c r="K50" s="3"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="66"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="68"/>
       <c r="U50" s="55"/>
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
@@ -18935,7 +19000,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="30"/>
       <c r="N58" s="43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O58" s="44"/>
       <c r="P58" s="45"/>
@@ -19035,13 +19100,13 @@
       <c r="K64" s="3"/>
       <c r="L64" s="11"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="59" t="s">
+      <c r="N64" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="64"/>
       <c r="S64" s="4"/>
       <c r="T64" s="14"/>
       <c r="U64" s="51" t="s">
@@ -19063,11 +19128,11 @@
       <c r="K65" s="3"/>
       <c r="L65" s="11"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="66"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="68"/>
       <c r="U65" s="55"/>
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
@@ -19201,7 +19266,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="30"/>
       <c r="N73" s="43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O73" s="44"/>
       <c r="P73" s="45"/>
@@ -19276,34 +19341,11 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G23:K24"/>
-    <mergeCell ref="U24:Y25"/>
-    <mergeCell ref="AB24:AF25"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="G9:K10"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:R13"/>
-    <mergeCell ref="U12:Y13"/>
-    <mergeCell ref="U15:Y16"/>
-    <mergeCell ref="AP30:AT31"/>
-    <mergeCell ref="AB15:AF16"/>
-    <mergeCell ref="N18:R19"/>
-    <mergeCell ref="AB18:AF19"/>
-    <mergeCell ref="N21:R22"/>
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="U27:Y28"/>
-    <mergeCell ref="AB27:AF28"/>
-    <mergeCell ref="U30:Y31"/>
-    <mergeCell ref="AB30:AF31"/>
-    <mergeCell ref="AI30:AM31"/>
-    <mergeCell ref="N67:R68"/>
-    <mergeCell ref="U67:Y68"/>
-    <mergeCell ref="N52:R53"/>
-    <mergeCell ref="U52:Y53"/>
-    <mergeCell ref="N55:R56"/>
-    <mergeCell ref="U55:Y56"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="U58:Y59"/>
+    <mergeCell ref="N70:R71"/>
+    <mergeCell ref="U70:Y71"/>
+    <mergeCell ref="N73:R74"/>
+    <mergeCell ref="U73:Y74"/>
+    <mergeCell ref="G76:K77"/>
     <mergeCell ref="AB33:AF34"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="N61:R62"/>
@@ -19317,11 +19359,34 @@
     <mergeCell ref="N49:R50"/>
     <mergeCell ref="U49:Y50"/>
     <mergeCell ref="U39:Y40"/>
-    <mergeCell ref="N70:R71"/>
-    <mergeCell ref="U70:Y71"/>
-    <mergeCell ref="N73:R74"/>
-    <mergeCell ref="U73:Y74"/>
-    <mergeCell ref="G76:K77"/>
+    <mergeCell ref="N67:R68"/>
+    <mergeCell ref="U67:Y68"/>
+    <mergeCell ref="N52:R53"/>
+    <mergeCell ref="U52:Y53"/>
+    <mergeCell ref="N55:R56"/>
+    <mergeCell ref="U55:Y56"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="U58:Y59"/>
+    <mergeCell ref="AP30:AT31"/>
+    <mergeCell ref="AB15:AF16"/>
+    <mergeCell ref="N18:R19"/>
+    <mergeCell ref="AB18:AF19"/>
+    <mergeCell ref="N21:R22"/>
+    <mergeCell ref="U21:Y22"/>
+    <mergeCell ref="U27:Y28"/>
+    <mergeCell ref="AB27:AF28"/>
+    <mergeCell ref="U30:Y31"/>
+    <mergeCell ref="AB30:AF31"/>
+    <mergeCell ref="AI30:AM31"/>
+    <mergeCell ref="G23:K24"/>
+    <mergeCell ref="U24:Y25"/>
+    <mergeCell ref="AB24:AF25"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="U12:Y13"/>
+    <mergeCell ref="U15:Y16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19333,7 +19398,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77334651-5342-455C-8BE8-F4AEA01BA48E}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -19349,7 +19414,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
@@ -19374,32 +19439,37 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
@@ -19409,37 +19479,32 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -20187,7 +20252,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -20400,7 +20465,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.45">
@@ -21710,7 +21775,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>

--- a/副業紹介サイト設計書(簡易版).xlsx
+++ b/副業紹介サイト設計書(簡易版).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\アプリ作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="10_ncr:8100000_{93759546-6B18-4329-A433-11B4B797C2D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{86C6E870-DE07-44DF-ACB7-118A05644D92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D4864-EEB4-42EE-AA08-6A08E6944E2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" firstSheet="4" activeTab="5" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -54,8 +54,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'(8)受注者候補一覧画面'!$A$1:$AC$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'(9)やりたい案件一覧画面'!$A$1:$AC$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.画面遷移図(簡易版)'!$A$1:$AX$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.画面遷移図(詳細)'!$A$1:$AC$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">'3.変数一覧'!$A$1:$AC$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.画面遷移図(詳細)'!$A$1:$AC$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'3.変数一覧'!$A$1:$AC$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AC$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>Gitインストール</t>
     <phoneticPr fontId="1"/>
@@ -453,10 +453,40 @@
     <t>(3)相手のプロフィール画面</t>
   </si>
   <si>
+    <t>(4)受注最終確認画面</t>
+  </si>
+  <si>
+    <t>(5)ログイン画面</t>
+  </si>
+  <si>
+    <t>(6)マイページ画面</t>
+  </si>
+  <si>
+    <t>(7)コイン購入/換金画面</t>
+  </si>
+  <si>
+    <t>(8)案件作成画面</t>
+  </si>
+  <si>
+    <t>(9)受注者候補一覧画面</t>
+  </si>
+  <si>
+    <t>(10)受注/発注一覧画面</t>
+  </si>
+  <si>
+    <t>(11)取引状況画面(受注)</t>
+  </si>
+  <si>
+    <t>(12)タスク詳細画面</t>
+  </si>
+  <si>
     <t>(13)中間成果物レビュー画面</t>
   </si>
   <si>
     <t>(14)最終成果物レビュー画面</t>
+  </si>
+  <si>
+    <t>(15)受注側からのレビュー画面</t>
   </si>
   <si>
     <t>(16)取引状況画面(発注)</t>
@@ -756,15 +786,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(4)応募最終確認画面</t>
+    <t>mainpage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(5)ログイン画面</t>
+    <t>mypage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(6)マイページ画面</t>
+    <t>loginpage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yourprof</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detailpj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jlist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wantlist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>makeprof</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jhlist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mdlreview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finreview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bothreview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hreal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)応募最終画面</t>
+    <rPh sb="3" eb="5">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -777,10 +860,23 @@
   </si>
   <si>
     <t>(9)やりたい案件一覧画面</t>
+    <rPh sb="7" eb="9">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(10)プロフィール作成画面</t>
+    <t>makepj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(12)取引状況画面(受注)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -788,30 +884,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(12)取引状況画面(受注)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(15)双方レビュー画面</t>
-    <rPh sb="4" eb="6">
-      <t>ソウホウ</t>
+    <t>(10)プロフィール作成画面</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USERID</t>
+    <t>jreal</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USERNAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANTEN_TITLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANKEN_TITLE</t>
+    <t>jfinal</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -819,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,21 +963,13 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF212121"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +1009,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,12 +1365,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1310,31 +1389,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,23 +1455,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1396,6 +1475,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,7 +1984,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>趣味はスノボです。</a:t>
+            <a:t>好きな食べ物はエッグタルトです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1898,7 +1992,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>大学生で基本暇なので納期は順守します。</a:t>
+            <a:t>レポートが大っ嫌いです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>簡単なイラスト作成ならできます。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2165,28 +2267,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>山田太郎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>受注中の案件一覧（押下でシーケンス画面に遷移します）</a:t>
+            <a:t>発注中の案件一覧（押下でシーケンス画面に遷移します）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2198,7 +2280,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・「融資についてのレポート作成してください」</a:t>
+            <a:t>・「税金についてのレポート作成してください」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2439,20 +2521,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>半沢直樹</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>さんとの取引画面</a:t>
+            <a:t>半沢直樹さんとの取引画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2526,31 +2596,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>融資</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>についてのレポート作成してください」</a:t>
+            <a:t>「税金についてのレポート作成してください」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3167,7 +3213,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>一章の「株式の生い立ち」についての記載は非常によくできていると思います。</a:t>
+            <a:t>一章の「税金の生い立ち」についての記載は非常によくできていると思います。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3417,7 +3463,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>これでなんとか出向を回避できそうです。</a:t>
+            <a:t>これで大学を卒業できそうです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3684,7 +3730,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>出向を回避できそうとのこと、よかったです。</a:t>
+            <a:t>大学を卒業できそうとのこと、よかったです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3823,20 +3869,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>山田太郎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>さんとの取引画面</a:t>
+            <a:t>山田太郎さんとの取引画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3910,31 +3944,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>融資</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>についてのレポート作成してください」</a:t>
+            <a:t>「税金についてのレポート作成してください」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5449,7 +5459,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日生まれの男性です。</a:t>
+            <a:t>日生まれの女です。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5457,7 +5467,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>好きな食べ物はリンゴです。</a:t>
+            <a:t>好きな食べ物はエッグタルトです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5473,7 +5483,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>簡単なイラスト作成なら得意です。</a:t>
+            <a:t>イラスト作成なら得意です。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5544,133 +5554,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>Ｃ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B95DC2-A1BE-45CA-B45D-4F23BCFD6FC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="632460" y="662940"/>
-          <a:ext cx="1783080" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>夜神月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CD155F-692C-41F2-8018-4C8758E120C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617220" y="1188720"/>
-          <a:ext cx="1988820" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
-            <a:t>国籍：日本</a:t>
+            <a:t>Ａ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7137,7 +7021,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AC9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7534,23 +7420,26 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73BCEDF-7F37-430C-863B-16A79A8C9A10}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B2:AA29"/>
+  <dimension ref="A2:AA29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="2.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -7565,7 +7454,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -7592,7 +7481,7 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -7619,7 +7508,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="13"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -7646,7 +7535,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -7673,7 +7562,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -7700,7 +7589,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -7727,7 +7616,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -7754,7 +7643,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="13"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7781,7 +7670,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="13"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -7808,7 +7697,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="13"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7835,7 +7724,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -7862,7 +7751,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -7889,7 +7778,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -9023,7 +8912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE37375-1156-4C77-A5ED-CD46F92A7DD1}">
   <dimension ref="B2:AE29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9032,7 +8923,7 @@
   <sheetData>
     <row r="2" spans="2:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9782,7 +9673,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10525,7 +10416,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11266,7 +11157,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12011,7 +11902,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12755,7 +12646,7 @@
   <sheetData>
     <row r="2" spans="2:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12791,7 +12682,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -12933,7 +12824,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -14073,7 +13964,7 @@
     <row r="18" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -14830,7 +14721,7 @@
     <row r="18" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -15416,7 +15307,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -16204,7 +16095,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -16346,7 +16237,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -17074,18 +16965,20 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E6CC63-337A-4021-ACF1-2E1D9D7AA0BB}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="B2:AB48"/>
+  <dimension ref="B2:AB54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="1"/>
+    <col min="1" max="11" width="4.09765625" style="1"/>
+    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="4.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -17112,113 +17005,156 @@
     </row>
     <row r="5" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L7" s="98" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="L8" s="98" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="L9" s="98" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="1" t="s">
-        <v>73</v>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
       </c>
+      <c r="L10" s="98" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
-        <v>74</v>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
       </c>
+      <c r="L11" s="98" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
-        <v>75</v>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
       </c>
+      <c r="L12" s="98" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="1" t="s">
-        <v>76</v>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
       </c>
+      <c r="L13" s="98" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="1" t="s">
-        <v>77</v>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
       </c>
+      <c r="L14" s="99" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="1" t="s">
-        <v>78</v>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
       </c>
+      <c r="L15" s="98" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L17" s="100"/>
     </row>
     <row r="18" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" s="1" t="s">
-        <v>80</v>
+      <c r="E18" s="1" t="s">
+        <v>103</v>
       </c>
+      <c r="L18" s="98" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D19" s="1" t="s">
-        <v>81</v>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="98" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="1" t="s">
-        <v>43</v>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="98" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="1" t="s">
-        <v>44</v>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
       </c>
+      <c r="L21" s="98" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="1" t="s">
-        <v>82</v>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
       </c>
+      <c r="L22" s="98" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="1" t="s">
-        <v>45</v>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="98" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -17228,663 +17164,828 @@
     </row>
     <row r="29" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="34"/>
-      <c r="C29" s="95" t="s">
-        <v>50</v>
+      <c r="C29" s="93" t="s">
+        <v>60</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="95" t="s">
-        <v>49</v>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="93" t="s">
+        <v>59</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="97"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="95"/>
       <c r="P29" s="93" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95" t="s">
-        <v>47</v>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="93" t="s">
+        <v>57</v>
       </c>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="97"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="95"/>
     </row>
     <row r="30" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="34">
         <v>1</v>
       </c>
-      <c r="C30" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="97"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="95"/>
     </row>
     <row r="31" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="34">
         <v>2</v>
       </c>
-      <c r="C31" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="97"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="95"/>
     </row>
     <row r="32" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="34">
         <v>3</v>
       </c>
-      <c r="C32" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="97"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="95"/>
     </row>
     <row r="33" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="34">
         <v>4</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="97"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="95"/>
     </row>
     <row r="34" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="34">
         <v>5</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="97"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="95"/>
     </row>
     <row r="35" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="3"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
+      <c r="B35" s="34">
+        <v>6</v>
+      </c>
+      <c r="C35" s="93"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="95"/>
     </row>
     <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="34">
+        <v>7</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="95"/>
+    </row>
+    <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="34">
+        <v>8</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="95"/>
+    </row>
+    <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="34">
+        <v>9</v>
+      </c>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="95"/>
+    </row>
+    <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="34">
+        <v>10</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
+      <c r="AB39" s="95"/>
+    </row>
+    <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="34"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
+      <c r="AB40" s="95"/>
+    </row>
+    <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="3"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+    </row>
+    <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="34"/>
-      <c r="C37" s="95" t="s">
-        <v>50</v>
+    <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="34"/>
+      <c r="C43" s="93" t="s">
+        <v>60</v>
       </c>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="95" t="s">
-        <v>49</v>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="93" t="s">
+        <v>59</v>
       </c>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="93" t="s">
-        <v>48</v>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="93" t="s">
+        <v>58</v>
       </c>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="95" t="s">
-        <v>47</v>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="93" t="s">
+        <v>57</v>
       </c>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="97"/>
-    </row>
-    <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="34">
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="95"/>
+    </row>
+    <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="34">
         <v>1</v>
       </c>
-      <c r="C38" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="97"/>
-    </row>
-    <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="34">
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="95"/>
+    </row>
+    <row r="45" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="34">
         <v>2</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
-      <c r="AA39" s="96"/>
-      <c r="AB39" s="97"/>
-    </row>
-    <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="34">
+      <c r="C45" s="93"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="94"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="94"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="95"/>
+    </row>
+    <row r="46" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="34">
         <v>3</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="96"/>
-      <c r="AB40" s="97"/>
-    </row>
-    <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="34">
+      <c r="C46" s="93"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="93"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="95"/>
+    </row>
+    <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="34">
         <v>4</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
-      <c r="AB41" s="97"/>
-    </row>
-    <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="34">
+      <c r="C47" s="93"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="94"/>
+      <c r="V47" s="94"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+      <c r="Y47" s="94"/>
+      <c r="Z47" s="94"/>
+      <c r="AA47" s="94"/>
+      <c r="AB47" s="95"/>
+    </row>
+    <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="34">
         <v>5</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="96"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="97"/>
-    </row>
-    <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="34">
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="94"/>
+      <c r="Y48" s="94"/>
+      <c r="Z48" s="94"/>
+      <c r="AA48" s="94"/>
+      <c r="AB48" s="95"/>
+    </row>
+    <row r="49" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="34">
         <v>6</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="97"/>
-    </row>
-    <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="34">
+      <c r="C49" s="93"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="94"/>
+      <c r="Y49" s="94"/>
+      <c r="Z49" s="94"/>
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="95"/>
+    </row>
+    <row r="50" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="34">
         <v>7</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="97"/>
-    </row>
-    <row r="45" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="34">
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="94"/>
+      <c r="Y50" s="94"/>
+      <c r="Z50" s="94"/>
+      <c r="AA50" s="94"/>
+      <c r="AB50" s="95"/>
+    </row>
+    <row r="51" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="34">
         <v>8</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="97"/>
-    </row>
-    <row r="46" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="34">
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="94"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="94"/>
+      <c r="Y51" s="94"/>
+      <c r="Z51" s="94"/>
+      <c r="AA51" s="94"/>
+      <c r="AB51" s="95"/>
+    </row>
+    <row r="52" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="34">
         <v>9</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="97"/>
-    </row>
-    <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="34">
+      <c r="C52" s="93"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="94"/>
+      <c r="AA52" s="94"/>
+      <c r="AB52" s="95"/>
+    </row>
+    <row r="53" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="34">
         <v>10</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="96"/>
-      <c r="W47" s="96"/>
-      <c r="X47" s="96"/>
-      <c r="Y47" s="96"/>
-      <c r="Z47" s="96"/>
-      <c r="AA47" s="96"/>
-      <c r="AB47" s="97"/>
-    </row>
-    <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="34"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="96"/>
-      <c r="U48" s="96"/>
-      <c r="V48" s="96"/>
-      <c r="W48" s="96"/>
-      <c r="X48" s="96"/>
-      <c r="Y48" s="96"/>
-      <c r="Z48" s="96"/>
-      <c r="AA48" s="96"/>
-      <c r="AB48" s="97"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="94"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="94"/>
+      <c r="Z53" s="94"/>
+      <c r="AA53" s="94"/>
+      <c r="AB53" s="95"/>
+    </row>
+    <row r="54" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="34"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="94"/>
+      <c r="V54" s="94"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="94"/>
+      <c r="Z54" s="94"/>
+      <c r="AA54" s="94"/>
+      <c r="AB54" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="R44:AB44"/>
-    <mergeCell ref="R45:AB45"/>
-    <mergeCell ref="R46:AB46"/>
-    <mergeCell ref="R47:AB47"/>
-    <mergeCell ref="R48:AB48"/>
-    <mergeCell ref="P43:Q43"/>
+  <mergeCells count="96">
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:AB39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:AB40"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:AB37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:AB38"/>
     <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="R37:AB37"/>
-    <mergeCell ref="R38:AB38"/>
-    <mergeCell ref="R39:AB39"/>
-    <mergeCell ref="R40:AB40"/>
-    <mergeCell ref="R41:AB41"/>
-    <mergeCell ref="R42:AB42"/>
-    <mergeCell ref="R43:AB43"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:AB35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:AB36"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:AB34"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="R32:AB32"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:AB33"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C54:K54"/>
     <mergeCell ref="L29:O29"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:AB29"/>
@@ -17899,21 +18000,56 @@
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="L32:O32"/>
     <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="R32:AB32"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:AB33"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:AB34"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:AB43"/>
+    <mergeCell ref="R44:AB44"/>
+    <mergeCell ref="R45:AB45"/>
+    <mergeCell ref="R46:AB46"/>
+    <mergeCell ref="R47:AB47"/>
+    <mergeCell ref="R48:AB48"/>
+    <mergeCell ref="R49:AB49"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R50:AB50"/>
+    <mergeCell ref="R51:AB51"/>
+    <mergeCell ref="R52:AB52"/>
+    <mergeCell ref="R53:AB53"/>
+    <mergeCell ref="R54:AB54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17977,7 +18113,7 @@
   </sheetPr>
   <dimension ref="B2:AV80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18062,13 +18198,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="51" t="s">
@@ -18085,11 +18221,11 @@
       <c r="D10" s="9"/>
       <c r="E10" s="28"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="28"/>
       <c r="M10" s="12"/>
       <c r="N10" s="55"/>
@@ -18136,7 +18272,7 @@
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
-      <c r="R12" s="69"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="51" t="s">
@@ -18164,7 +18300,7 @@
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
-      <c r="R13" s="70"/>
+      <c r="R13" s="90"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
       <c r="U13" s="55"/>
@@ -18214,13 +18350,13 @@
       <c r="M15" s="30"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="61" t="s">
-        <v>53</v>
+      <c r="U15" s="59" t="s">
+        <v>63</v>
       </c>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="71"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="91"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="51" t="s">
@@ -18251,11 +18387,11 @@
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="72"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="92"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="55"/>
@@ -18362,13 +18498,13 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="75"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="77"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="51" t="s">
@@ -18392,10 +18528,10 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="78"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -18458,7 +18594,7 @@
       <c r="AC24" s="52"/>
       <c r="AD24" s="52"/>
       <c r="AE24" s="52"/>
-      <c r="AF24" s="59"/>
+      <c r="AF24" s="75"/>
       <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18486,7 +18622,7 @@
       <c r="AC25" s="56"/>
       <c r="AD25" s="56"/>
       <c r="AE25" s="56"/>
-      <c r="AF25" s="60"/>
+      <c r="AF25" s="76"/>
       <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18532,7 +18668,7 @@
       <c r="R27" s="11"/>
       <c r="T27" s="4"/>
       <c r="U27" s="79" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="V27" s="80"/>
       <c r="W27" s="81"/>
@@ -18546,7 +18682,7 @@
       <c r="AC27" s="52"/>
       <c r="AD27" s="52"/>
       <c r="AE27" s="52"/>
-      <c r="AF27" s="59"/>
+      <c r="AF27" s="75"/>
       <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18573,7 +18709,7 @@
       <c r="AC28" s="56"/>
       <c r="AD28" s="56"/>
       <c r="AE28" s="56"/>
-      <c r="AF28" s="60"/>
+      <c r="AF28" s="76"/>
       <c r="AV28" s="21"/>
     </row>
     <row r="29" spans="3:48" x14ac:dyDescent="0.45">
@@ -18585,16 +18721,16 @@
       <c r="E30" s="3"/>
       <c r="T30" s="4"/>
       <c r="U30" s="51" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="V30" s="52"/>
       <c r="W30" s="52"/>
       <c r="X30" s="52"/>
-      <c r="Y30" s="59"/>
+      <c r="Y30" s="75"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="31"/>
       <c r="AB30" s="79" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AC30" s="80"/>
       <c r="AD30" s="80"/>
@@ -18602,13 +18738,13 @@
       <c r="AF30" s="87"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="73" t="s">
+      <c r="AI30" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="75"/>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="68"/>
+      <c r="AL30" s="68"/>
+      <c r="AM30" s="77"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="31"/>
       <c r="AP30" s="51" t="s">
@@ -18617,7 +18753,7 @@
       <c r="AQ30" s="52"/>
       <c r="AR30" s="52"/>
       <c r="AS30" s="52"/>
-      <c r="AT30" s="59"/>
+      <c r="AT30" s="75"/>
       <c r="AV30" s="21"/>
     </row>
     <row r="31" spans="3:48" x14ac:dyDescent="0.45">
@@ -18626,22 +18762,22 @@
       <c r="V31" s="56"/>
       <c r="W31" s="56"/>
       <c r="X31" s="56"/>
-      <c r="Y31" s="60"/>
+      <c r="Y31" s="76"/>
       <c r="AB31" s="83"/>
       <c r="AC31" s="84"/>
       <c r="AD31" s="84"/>
       <c r="AE31" s="84"/>
       <c r="AF31" s="88"/>
-      <c r="AI31" s="76"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
       <c r="AM31" s="78"/>
       <c r="AP31" s="55"/>
       <c r="AQ31" s="56"/>
       <c r="AR31" s="56"/>
       <c r="AS31" s="56"/>
-      <c r="AT31" s="60"/>
+      <c r="AT31" s="76"/>
       <c r="AV31" s="21"/>
     </row>
     <row r="32" spans="3:48" x14ac:dyDescent="0.45">
@@ -18652,36 +18788,36 @@
       <c r="O33" s="11"/>
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="61" t="s">
-        <v>59</v>
+      <c r="U33" s="59" t="s">
+        <v>69</v>
       </c>
-      <c r="V33" s="62"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="64"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="62"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="31"/>
-      <c r="AB33" s="61" t="s">
+      <c r="AB33" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="64"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="62"/>
       <c r="AV33" s="21"/>
     </row>
     <row r="34" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T34" s="6"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="68"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="68"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="66"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="66"/>
       <c r="AV34" s="21"/>
     </row>
     <row r="35" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18697,22 +18833,22 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="73" t="s">
-        <v>56</v>
+      <c r="U36" s="67" t="s">
+        <v>66</v>
       </c>
-      <c r="V36" s="74"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="90"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="70"/>
       <c r="AV36" s="21"/>
     </row>
     <row r="37" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T37" s="6"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="92"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T38" s="2"/>
@@ -18724,20 +18860,20 @@
     </row>
     <row r="39" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T39" s="4"/>
-      <c r="U39" s="73" t="s">
-        <v>57</v>
+      <c r="U39" s="67" t="s">
+        <v>67</v>
       </c>
-      <c r="V39" s="74"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="90"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="70"/>
     </row>
     <row r="40" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U40" s="76"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="92"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="74"/>
     </row>
     <row r="41" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U41" s="37"/>
@@ -18754,23 +18890,23 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="73" t="s">
-        <v>57</v>
+      <c r="C43" s="67" t="s">
+        <v>67</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="90"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="70"/>
       <c r="AV43" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="76"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="92"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="AV44" s="21"/>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.45">
@@ -18783,7 +18919,7 @@
       <c r="E46" s="30"/>
       <c r="F46" s="31"/>
       <c r="G46" s="43" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
@@ -18834,13 +18970,13 @@
       <c r="K49" s="3"/>
       <c r="L49" s="11"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="61" t="s">
+      <c r="N49" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="62"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="64"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="62"/>
       <c r="S49" s="4"/>
       <c r="T49" s="14"/>
       <c r="U49" s="51" t="s">
@@ -18862,11 +18998,11 @@
       <c r="K50" s="3"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="66"/>
       <c r="U50" s="55"/>
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
@@ -19000,7 +19136,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="30"/>
       <c r="N58" s="43" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O58" s="44"/>
       <c r="P58" s="45"/>
@@ -19100,13 +19236,13 @@
       <c r="K64" s="3"/>
       <c r="L64" s="11"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="61" t="s">
+      <c r="N64" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O64" s="62"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="64"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="62"/>
       <c r="S64" s="4"/>
       <c r="T64" s="14"/>
       <c r="U64" s="51" t="s">
@@ -19128,11 +19264,11 @@
       <c r="K65" s="3"/>
       <c r="L65" s="11"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="68"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="66"/>
       <c r="U65" s="55"/>
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
@@ -19266,7 +19402,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="30"/>
       <c r="N73" s="43" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O73" s="44"/>
       <c r="P73" s="45"/>
@@ -19341,11 +19477,34 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="N70:R71"/>
-    <mergeCell ref="U70:Y71"/>
-    <mergeCell ref="N73:R74"/>
-    <mergeCell ref="U73:Y74"/>
-    <mergeCell ref="G76:K77"/>
+    <mergeCell ref="G23:K24"/>
+    <mergeCell ref="U24:Y25"/>
+    <mergeCell ref="AB24:AF25"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="U12:Y13"/>
+    <mergeCell ref="U15:Y16"/>
+    <mergeCell ref="AP30:AT31"/>
+    <mergeCell ref="AB15:AF16"/>
+    <mergeCell ref="N18:R19"/>
+    <mergeCell ref="AB18:AF19"/>
+    <mergeCell ref="N21:R22"/>
+    <mergeCell ref="U21:Y22"/>
+    <mergeCell ref="U27:Y28"/>
+    <mergeCell ref="AB27:AF28"/>
+    <mergeCell ref="U30:Y31"/>
+    <mergeCell ref="AB30:AF31"/>
+    <mergeCell ref="AI30:AM31"/>
+    <mergeCell ref="N67:R68"/>
+    <mergeCell ref="U67:Y68"/>
+    <mergeCell ref="N52:R53"/>
+    <mergeCell ref="U52:Y53"/>
+    <mergeCell ref="N55:R56"/>
+    <mergeCell ref="U55:Y56"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="U58:Y59"/>
     <mergeCell ref="AB33:AF34"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="N61:R62"/>
@@ -19359,34 +19518,11 @@
     <mergeCell ref="N49:R50"/>
     <mergeCell ref="U49:Y50"/>
     <mergeCell ref="U39:Y40"/>
-    <mergeCell ref="N67:R68"/>
-    <mergeCell ref="U67:Y68"/>
-    <mergeCell ref="N52:R53"/>
-    <mergeCell ref="U52:Y53"/>
-    <mergeCell ref="N55:R56"/>
-    <mergeCell ref="U55:Y56"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="U58:Y59"/>
-    <mergeCell ref="AP30:AT31"/>
-    <mergeCell ref="AB15:AF16"/>
-    <mergeCell ref="N18:R19"/>
-    <mergeCell ref="AB18:AF19"/>
-    <mergeCell ref="N21:R22"/>
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="U27:Y28"/>
-    <mergeCell ref="AB27:AF28"/>
-    <mergeCell ref="U30:Y31"/>
-    <mergeCell ref="AB30:AF31"/>
-    <mergeCell ref="AI30:AM31"/>
-    <mergeCell ref="G23:K24"/>
-    <mergeCell ref="U24:Y25"/>
-    <mergeCell ref="AB24:AF25"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="G9:K10"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:R13"/>
-    <mergeCell ref="U12:Y13"/>
-    <mergeCell ref="U15:Y16"/>
+    <mergeCell ref="N70:R71"/>
+    <mergeCell ref="U70:Y71"/>
+    <mergeCell ref="N73:R74"/>
+    <mergeCell ref="U73:Y74"/>
+    <mergeCell ref="G76:K77"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19398,7 +19534,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77334651-5342-455C-8BE8-F4AEA01BA48E}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -19414,7 +19550,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
@@ -19439,37 +19575,32 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
@@ -19479,32 +19610,37 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -19519,7 +19655,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:AA34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19527,13 +19663,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -20252,7 +20388,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -20465,7 +20601,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.45">
@@ -21766,7 +21902,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:AA29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -21774,15 +21912,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>53</v>
+      <c r="B2" s="96" t="s">
+        <v>63</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>

--- a/副業紹介サイト設計書(簡易版).xlsx
+++ b/副業紹介サイト設計書(簡易版).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\開発共有\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D4864-EEB4-42EE-AA08-6A08E6944E2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{CA1D4864-EEB4-42EE-AA08-6A08E6944E2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{108028AE-7CBD-4DE1-A5BD-117DE3CA59AE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" firstSheet="4" activeTab="5" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'(9)やりたい案件一覧画面'!$A$1:$AC$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.画面遷移図(簡易版)'!$A$1:$AX$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.画面遷移図(詳細)'!$A$1:$AC$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">'3.変数一覧'!$A$1:$AC$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'3.変数一覧'!$A$1:$AC$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AC$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>Gitインストール</t>
     <phoneticPr fontId="1"/>
@@ -859,38 +859,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(9)やりたい案件一覧画面</t>
-    <rPh sb="7" eb="9">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>makepj</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(12)取引状況画面(受注)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(11)受注/発注一覧画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(10)プロフィール作成画面</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -899,6 +872,129 @@
   </si>
   <si>
     <t>jfinal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)案件の詳細画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件の詳細画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)相手のプロフィール画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手のプロフィール画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募最終画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)マイページ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件作成画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注者候補一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたい案件一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール作成画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注/発注一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引状況画面(受注)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(13)中間成果物レビュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間成果物レビュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(14)最終成果物レビュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終成果物レビュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(15)受注側からのレビュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注側からのレビュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(16)取引状況画面(発注)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引状況画面(発注)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -969,7 +1065,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,12 +1105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1393,15 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,19 +1575,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7021,9 +7123,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AC9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7031,380 +7131,380 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7422,9 +7522,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:AA29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7432,14 +7530,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -8912,9 +9010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE37375-1156-4C77-A5ED-CD46F92A7DD1}">
   <dimension ref="B2:AE29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16965,17 +17061,20 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E6CC63-337A-4021-ACF1-2E1D9D7AA0BB}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="B2:AB54"/>
+  <dimension ref="B1:AB73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="11" width="4.09765625" style="1"/>
-    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.69921875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="4.09765625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L1" s="39"/>
+    </row>
     <row r="2" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>61</v>
@@ -16989,7 +17088,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -16998,12 +17097,18 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
+    <row r="3" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="39"/>
+    </row>
     <row r="4" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L5" s="39"/>
+    </row>
     <row r="6" spans="2:19" s="15" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -17011,1041 +17116,1431 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="98" t="s">
-        <v>83</v>
-      </c>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="98" t="s">
-        <v>87</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="98" t="s">
-        <v>86</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="98" t="s">
-        <v>105</v>
-      </c>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="98" t="s">
-        <v>85</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="98" t="s">
-        <v>84</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="98" t="s">
-        <v>100</v>
-      </c>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="99" t="s">
-        <v>88</v>
-      </c>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="98" t="s">
-        <v>89</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="2:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L16" s="100"/>
-    </row>
-    <row r="17" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="100"/>
-    </row>
-    <row r="18" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="98" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="98" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="98" t="s">
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="26" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="34"/>
+      <c r="D28" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+    </row>
+    <row r="29" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="96" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="98" t="s">
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+    </row>
+    <row r="30" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+    </row>
+    <row r="31" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="34">
+        <v>3</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+    </row>
+    <row r="32" spans="2:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="34">
+        <v>4</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+    </row>
+    <row r="33" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="34">
+        <v>5</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+    </row>
+    <row r="34" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="34">
+        <v>6</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+    </row>
+    <row r="35" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="34">
+        <v>7</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+    </row>
+    <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="34">
+        <v>8</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+    </row>
+    <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="34">
+        <v>9</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+    </row>
+    <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="34">
+        <v>10</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+    </row>
+    <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="34">
+        <v>11</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+    </row>
+    <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="34">
+        <v>12</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+    </row>
+    <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="34">
+        <v>13</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="99" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="98" t="s">
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+    </row>
+    <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="34">
+        <v>14</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="99" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="98" t="s">
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+    </row>
+    <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="34">
+        <v>15</v>
+      </c>
+      <c r="D43" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="99" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="98" t="s">
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+    </row>
+    <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="34">
+        <v>16</v>
+      </c>
+      <c r="D44" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="99" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+    </row>
+    <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="34"/>
-      <c r="C29" s="93" t="s">
+    <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="34"/>
+      <c r="D48" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="93" t="s">
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="93" t="s">
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="93" t="s">
+      <c r="R48" s="103"/>
+      <c r="S48" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="95"/>
-    </row>
-    <row r="30" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="34">
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="102"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="102"/>
+      <c r="Y48" s="102"/>
+      <c r="Z48" s="102"/>
+      <c r="AA48" s="102"/>
+      <c r="AB48" s="103"/>
+    </row>
+    <row r="49" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="34">
         <v>1</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="95"/>
-    </row>
-    <row r="31" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="34">
+      <c r="D49" s="96"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="97"/>
+      <c r="P49" s="98"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="98"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="97"/>
+      <c r="U49" s="97"/>
+      <c r="V49" s="97"/>
+      <c r="W49" s="97"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="97"/>
+      <c r="AA49" s="97"/>
+      <c r="AB49" s="98"/>
+    </row>
+    <row r="50" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="34">
         <v>2</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="95"/>
-    </row>
-    <row r="32" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="34">
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="97"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="98"/>
+      <c r="S50" s="96"/>
+      <c r="T50" s="97"/>
+      <c r="U50" s="97"/>
+      <c r="V50" s="97"/>
+      <c r="W50" s="97"/>
+      <c r="X50" s="97"/>
+      <c r="Y50" s="97"/>
+      <c r="Z50" s="97"/>
+      <c r="AA50" s="97"/>
+      <c r="AB50" s="98"/>
+    </row>
+    <row r="51" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="34">
         <v>3</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="95"/>
-    </row>
-    <row r="33" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="34">
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="97"/>
+      <c r="U51" s="97"/>
+      <c r="V51" s="97"/>
+      <c r="W51" s="97"/>
+      <c r="X51" s="97"/>
+      <c r="Y51" s="97"/>
+      <c r="Z51" s="97"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="98"/>
+    </row>
+    <row r="52" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="34">
         <v>4</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="95"/>
-    </row>
-    <row r="34" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="34">
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="97"/>
+      <c r="U52" s="97"/>
+      <c r="V52" s="97"/>
+      <c r="W52" s="97"/>
+      <c r="X52" s="97"/>
+      <c r="Y52" s="97"/>
+      <c r="Z52" s="97"/>
+      <c r="AA52" s="97"/>
+      <c r="AB52" s="98"/>
+    </row>
+    <row r="53" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="34">
         <v>5</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="95"/>
-    </row>
-    <row r="35" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="34">
+      <c r="D53" s="96"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="97"/>
+      <c r="U53" s="97"/>
+      <c r="V53" s="97"/>
+      <c r="W53" s="97"/>
+      <c r="X53" s="97"/>
+      <c r="Y53" s="97"/>
+      <c r="Z53" s="97"/>
+      <c r="AA53" s="97"/>
+      <c r="AB53" s="98"/>
+    </row>
+    <row r="54" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="34">
         <v>6</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="95"/>
-    </row>
-    <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="34">
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="97"/>
+      <c r="V54" s="97"/>
+      <c r="W54" s="97"/>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="97"/>
+      <c r="Z54" s="97"/>
+      <c r="AA54" s="97"/>
+      <c r="AB54" s="98"/>
+    </row>
+    <row r="55" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="34">
         <v>7</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="95"/>
-    </row>
-    <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="34">
+      <c r="D55" s="96"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="97"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="97"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="97"/>
+      <c r="U55" s="97"/>
+      <c r="V55" s="97"/>
+      <c r="W55" s="97"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="97"/>
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="98"/>
+    </row>
+    <row r="56" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="34">
         <v>8</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="95"/>
-    </row>
-    <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="34">
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="97"/>
+      <c r="O56" s="97"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="97"/>
+      <c r="U56" s="97"/>
+      <c r="V56" s="97"/>
+      <c r="W56" s="97"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="97"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="98"/>
+    </row>
+    <row r="57" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C57" s="34">
         <v>9</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
-      <c r="AB38" s="95"/>
-    </row>
-    <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="34">
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="97"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="97"/>
+      <c r="U57" s="97"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
+      <c r="X57" s="97"/>
+      <c r="Y57" s="97"/>
+      <c r="Z57" s="97"/>
+      <c r="AA57" s="97"/>
+      <c r="AB57" s="98"/>
+    </row>
+    <row r="58" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="34">
         <v>10</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
-      <c r="AB39" s="95"/>
-    </row>
-    <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="34"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="94"/>
-      <c r="AA40" s="94"/>
-      <c r="AB40" s="95"/>
-    </row>
-    <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="3"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-    </row>
-    <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="97"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="98"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="97"/>
+      <c r="U58" s="97"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
+      <c r="X58" s="97"/>
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="97"/>
+      <c r="AB58" s="98"/>
+    </row>
+    <row r="59" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="34"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="97"/>
+      <c r="U59" s="97"/>
+      <c r="V59" s="97"/>
+      <c r="W59" s="97"/>
+      <c r="X59" s="97"/>
+      <c r="Y59" s="97"/>
+      <c r="Z59" s="97"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="98"/>
+    </row>
+    <row r="60" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="3"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
+    </row>
+    <row r="61" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="34"/>
-      <c r="C43" s="93" t="s">
+    <row r="62" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="34"/>
+      <c r="D62" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="93" t="s">
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="93" t="s">
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="93" t="s">
+      <c r="R62" s="103"/>
+      <c r="S62" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="94"/>
-      <c r="AA43" s="94"/>
-      <c r="AB43" s="95"/>
-    </row>
-    <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="34">
+      <c r="T62" s="102"/>
+      <c r="U62" s="102"/>
+      <c r="V62" s="102"/>
+      <c r="W62" s="102"/>
+      <c r="X62" s="102"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="102"/>
+      <c r="AA62" s="102"/>
+      <c r="AB62" s="103"/>
+    </row>
+    <row r="63" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="34">
         <v>1</v>
       </c>
-      <c r="C44" s="93"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
-      <c r="AB44" s="95"/>
-    </row>
-    <row r="45" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="34">
+      <c r="D63" s="96"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="98"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="98"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="98"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="97"/>
+      <c r="U63" s="97"/>
+      <c r="V63" s="97"/>
+      <c r="W63" s="97"/>
+      <c r="X63" s="97"/>
+      <c r="Y63" s="97"/>
+      <c r="Z63" s="97"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="98"/>
+    </row>
+    <row r="64" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="34">
         <v>2</v>
       </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="95"/>
-    </row>
-    <row r="46" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="34">
+      <c r="D64" s="96"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="98"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="97"/>
+      <c r="P64" s="98"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="98"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="97"/>
+      <c r="U64" s="97"/>
+      <c r="V64" s="97"/>
+      <c r="W64" s="97"/>
+      <c r="X64" s="97"/>
+      <c r="Y64" s="97"/>
+      <c r="Z64" s="97"/>
+      <c r="AA64" s="97"/>
+      <c r="AB64" s="98"/>
+    </row>
+    <row r="65" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="34">
         <v>3</v>
       </c>
-      <c r="C46" s="93"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="95"/>
-    </row>
-    <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="34">
+      <c r="D65" s="96"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="98"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="97"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="98"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="98"/>
+      <c r="S65" s="96"/>
+      <c r="T65" s="97"/>
+      <c r="U65" s="97"/>
+      <c r="V65" s="97"/>
+      <c r="W65" s="97"/>
+      <c r="X65" s="97"/>
+      <c r="Y65" s="97"/>
+      <c r="Z65" s="97"/>
+      <c r="AA65" s="97"/>
+      <c r="AB65" s="98"/>
+    </row>
+    <row r="66" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="34">
         <v>4</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="94"/>
-      <c r="AA47" s="94"/>
-      <c r="AB47" s="95"/>
-    </row>
-    <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="34">
+      <c r="D66" s="96"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="97"/>
+      <c r="O66" s="97"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="98"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="97"/>
+      <c r="U66" s="97"/>
+      <c r="V66" s="97"/>
+      <c r="W66" s="97"/>
+      <c r="X66" s="97"/>
+      <c r="Y66" s="97"/>
+      <c r="Z66" s="97"/>
+      <c r="AA66" s="97"/>
+      <c r="AB66" s="98"/>
+    </row>
+    <row r="67" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C67" s="34">
         <v>5</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="94"/>
-      <c r="AA48" s="94"/>
-      <c r="AB48" s="95"/>
-    </row>
-    <row r="49" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="34">
+      <c r="D67" s="96"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="97"/>
+      <c r="L67" s="98"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="97"/>
+      <c r="O67" s="97"/>
+      <c r="P67" s="98"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="98"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="97"/>
+      <c r="U67" s="97"/>
+      <c r="V67" s="97"/>
+      <c r="W67" s="97"/>
+      <c r="X67" s="97"/>
+      <c r="Y67" s="97"/>
+      <c r="Z67" s="97"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="98"/>
+    </row>
+    <row r="68" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="34">
         <v>6</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="95"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="94"/>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="95"/>
-    </row>
-    <row r="50" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="34">
+      <c r="D68" s="96"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="98"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="97"/>
+      <c r="O68" s="97"/>
+      <c r="P68" s="98"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="98"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="97"/>
+      <c r="U68" s="97"/>
+      <c r="V68" s="97"/>
+      <c r="W68" s="97"/>
+      <c r="X68" s="97"/>
+      <c r="Y68" s="97"/>
+      <c r="Z68" s="97"/>
+      <c r="AA68" s="97"/>
+      <c r="AB68" s="98"/>
+    </row>
+    <row r="69" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="34">
         <v>7</v>
       </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-      <c r="Z50" s="94"/>
-      <c r="AA50" s="94"/>
-      <c r="AB50" s="95"/>
-    </row>
-    <row r="51" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="34">
+      <c r="D69" s="96"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="97"/>
+      <c r="O69" s="97"/>
+      <c r="P69" s="98"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="98"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="97"/>
+      <c r="U69" s="97"/>
+      <c r="V69" s="97"/>
+      <c r="W69" s="97"/>
+      <c r="X69" s="97"/>
+      <c r="Y69" s="97"/>
+      <c r="Z69" s="97"/>
+      <c r="AA69" s="97"/>
+      <c r="AB69" s="98"/>
+    </row>
+    <row r="70" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="34">
         <v>8</v>
       </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="94"/>
-      <c r="AA51" s="94"/>
-      <c r="AB51" s="95"/>
-    </row>
-    <row r="52" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="34">
+      <c r="D70" s="96"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="97"/>
+      <c r="O70" s="97"/>
+      <c r="P70" s="98"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="98"/>
+      <c r="S70" s="96"/>
+      <c r="T70" s="97"/>
+      <c r="U70" s="97"/>
+      <c r="V70" s="97"/>
+      <c r="W70" s="97"/>
+      <c r="X70" s="97"/>
+      <c r="Y70" s="97"/>
+      <c r="Z70" s="97"/>
+      <c r="AA70" s="97"/>
+      <c r="AB70" s="98"/>
+    </row>
+    <row r="71" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="34">
         <v>9</v>
       </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="95"/>
-    </row>
-    <row r="53" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="34">
+      <c r="D71" s="96"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="98"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="97"/>
+      <c r="O71" s="97"/>
+      <c r="P71" s="98"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="98"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="97"/>
+      <c r="U71" s="97"/>
+      <c r="V71" s="97"/>
+      <c r="W71" s="97"/>
+      <c r="X71" s="97"/>
+      <c r="Y71" s="97"/>
+      <c r="Z71" s="97"/>
+      <c r="AA71" s="97"/>
+      <c r="AB71" s="98"/>
+    </row>
+    <row r="72" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C72" s="34">
         <v>10</v>
       </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="95"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="94"/>
-      <c r="AA53" s="94"/>
-      <c r="AB53" s="95"/>
-    </row>
-    <row r="54" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="34"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="94"/>
-      <c r="AB54" s="95"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="97"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="98"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="97"/>
+      <c r="U72" s="97"/>
+      <c r="V72" s="97"/>
+      <c r="W72" s="97"/>
+      <c r="X72" s="97"/>
+      <c r="Y72" s="97"/>
+      <c r="Z72" s="97"/>
+      <c r="AA72" s="97"/>
+      <c r="AB72" s="98"/>
+    </row>
+    <row r="73" spans="3:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="34"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="97"/>
+      <c r="O73" s="97"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="98"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="97"/>
+      <c r="U73" s="97"/>
+      <c r="V73" s="97"/>
+      <c r="W73" s="97"/>
+      <c r="X73" s="97"/>
+      <c r="Y73" s="97"/>
+      <c r="Z73" s="97"/>
+      <c r="AA73" s="97"/>
+      <c r="AB73" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:AB39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:AB40"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:AB37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:AB38"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:AB35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:AB36"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:AB34"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="R32:AB32"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:AB33"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:AB29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:AB30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:AB31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:AB43"/>
-    <mergeCell ref="R44:AB44"/>
-    <mergeCell ref="R45:AB45"/>
-    <mergeCell ref="R46:AB46"/>
-    <mergeCell ref="R47:AB47"/>
-    <mergeCell ref="R48:AB48"/>
-    <mergeCell ref="R49:AB49"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R50:AB50"/>
-    <mergeCell ref="R51:AB51"/>
-    <mergeCell ref="R52:AB52"/>
-    <mergeCell ref="R53:AB53"/>
-    <mergeCell ref="R54:AB54"/>
+  <mergeCells count="130">
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:AB59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:AB56"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:AB57"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:AB58"/>
+    <mergeCell ref="S53:AB53"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:AB54"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:AB55"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:AB48"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:AB49"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:AB50"/>
+    <mergeCell ref="D51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:AB51"/>
+    <mergeCell ref="D50:L50"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:AB52"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="D67:L67"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S69:AB69"/>
+    <mergeCell ref="S70:AB70"/>
+    <mergeCell ref="S71:AB71"/>
+    <mergeCell ref="S72:AB72"/>
+    <mergeCell ref="S73:AB73"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="D62:L62"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:AB62"/>
+    <mergeCell ref="S63:AB63"/>
+    <mergeCell ref="S64:AB64"/>
+    <mergeCell ref="S65:AB65"/>
+    <mergeCell ref="S66:AB66"/>
+    <mergeCell ref="S67:AB67"/>
+    <mergeCell ref="S68:AB68"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="M36:R36"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="M43:R43"/>
+    <mergeCell ref="D44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:R42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18113,7 +18608,7 @@
   </sheetPr>
   <dimension ref="B2:AV80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18133,13 +18628,13 @@
       </c>
     </row>
     <row r="6" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -18156,11 +18651,11 @@
       </c>
     </row>
     <row r="7" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -18198,22 +18693,22 @@
       <c r="D9" s="9"/>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="AV9" s="21"/>
     </row>
     <row r="10" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18221,18 +18716,18 @@
       <c r="D10" s="9"/>
       <c r="E10" s="28"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="28"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="61"/>
       <c r="AV10" s="21"/>
     </row>
     <row r="11" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18266,22 +18761,22 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="43" t="s">
+      <c r="N12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="89"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="92"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="51" t="s">
+      <c r="U12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="52"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="57"/>
       <c r="AV12" s="21"/>
     </row>
     <row r="13" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18296,18 +18791,18 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="90"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="93"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="61"/>
       <c r="AV13" s="21"/>
     </row>
     <row r="14" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18350,22 +18845,22 @@
       <c r="M15" s="30"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="59" t="s">
+      <c r="U15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="91"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="94"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="51" t="s">
+      <c r="AB15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="54"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="57"/>
       <c r="AV15" s="21"/>
     </row>
     <row r="16" spans="2:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18387,18 +18882,18 @@
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="92"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="95"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
       <c r="AV16" s="21"/>
     </row>
     <row r="17" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18440,22 +18935,22 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
       <c r="S18" s="14"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="51" t="s">
+      <c r="AB18" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="54"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="57"/>
       <c r="AV18" s="21"/>
     </row>
     <row r="19" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18470,16 +18965,16 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="58"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="53"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
       <c r="AV19" s="21"/>
     </row>
     <row r="20" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18498,22 +18993,22 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="77"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="80"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="51" t="s">
+      <c r="U21" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="54"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="57"/>
       <c r="AV21" s="21"/>
     </row>
     <row r="22" spans="3:48" x14ac:dyDescent="0.45">
@@ -18528,18 +19023,18 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="78"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="81"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="61"/>
       <c r="AV22" s="21"/>
     </row>
     <row r="23" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18547,13 +19042,13 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -18569,32 +19064,32 @@
       <c r="D24" s="9"/>
       <c r="E24" s="11"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="51" t="s">
+      <c r="U24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="52"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="54"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="57"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="11"/>
-      <c r="AB24" s="51" t="s">
+      <c r="AB24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="75"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="78"/>
       <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18612,17 +19107,17 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="61"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="76"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="79"/>
       <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18667,22 +19162,22 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="79" t="s">
+      <c r="U27" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="80"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="82"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="85"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="31"/>
-      <c r="AB27" s="51" t="s">
+      <c r="AB27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="75"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="78"/>
       <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18700,16 +19195,16 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="86"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="76"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="89"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="79"/>
       <c r="AV28" s="21"/>
     </row>
     <row r="29" spans="3:48" x14ac:dyDescent="0.45">
@@ -18720,64 +19215,64 @@
     <row r="30" spans="3:48" x14ac:dyDescent="0.45">
       <c r="E30" s="3"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="51" t="s">
+      <c r="U30" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="75"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="78"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="31"/>
-      <c r="AB30" s="79" t="s">
+      <c r="AB30" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="80"/>
-      <c r="AF30" s="87"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="90"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="67" t="s">
+      <c r="AI30" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AJ30" s="68"/>
-      <c r="AK30" s="68"/>
-      <c r="AL30" s="68"/>
-      <c r="AM30" s="77"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="80"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="31"/>
-      <c r="AP30" s="51" t="s">
+      <c r="AP30" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="75"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="78"/>
       <c r="AV30" s="21"/>
     </row>
     <row r="31" spans="3:48" x14ac:dyDescent="0.45">
       <c r="T31" s="6"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="76"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="88"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="72"/>
-      <c r="AM31" s="78"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="76"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="79"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="91"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="81"/>
+      <c r="AP31" s="58"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="79"/>
       <c r="AV31" s="21"/>
     </row>
     <row r="32" spans="3:48" x14ac:dyDescent="0.45">
@@ -18788,36 +19283,36 @@
       <c r="O33" s="11"/>
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="59" t="s">
+      <c r="U33" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="V33" s="60"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="62"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="65"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="31"/>
-      <c r="AB33" s="59" t="s">
+      <c r="AB33" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="65"/>
       <c r="AV33" s="21"/>
     </row>
     <row r="34" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T34" s="6"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="66"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="69"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="69"/>
       <c r="AV34" s="21"/>
     </row>
     <row r="35" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18833,22 +19328,22 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="67" t="s">
+      <c r="U36" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="V36" s="68"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="70"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="73"/>
       <c r="AV36" s="21"/>
     </row>
     <row r="37" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T37" s="6"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="77"/>
     </row>
     <row r="38" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T38" s="2"/>
@@ -18860,20 +19355,20 @@
     </row>
     <row r="39" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T39" s="4"/>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="V39" s="68"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="70"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="73"/>
     </row>
     <row r="40" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U40" s="71"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="77"/>
     </row>
     <row r="41" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U41" s="37"/>
@@ -18890,23 +19385,23 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="AV43" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
       <c r="AV44" s="21"/>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.45">
@@ -18918,22 +19413,22 @@
       <c r="D46" s="9"/>
       <c r="E46" s="30"/>
       <c r="F46" s="31"/>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="51" t="s">
+      <c r="N46" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="54"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="57"/>
       <c r="AV46" s="21"/>
     </row>
     <row r="47" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18941,18 +19436,18 @@
       <c r="D47" s="9"/>
       <c r="E47" s="28"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
       <c r="L47" s="28"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="61"/>
       <c r="AV47" s="21"/>
     </row>
     <row r="48" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18970,22 +19465,22 @@
       <c r="K49" s="3"/>
       <c r="L49" s="11"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="59" t="s">
+      <c r="N49" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="60"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="62"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="65"/>
       <c r="S49" s="4"/>
       <c r="T49" s="14"/>
-      <c r="U49" s="51" t="s">
+      <c r="U49" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="V49" s="52"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="54"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="57"/>
       <c r="AV49" s="21"/>
     </row>
     <row r="50" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -18998,16 +19493,16 @@
       <c r="K50" s="3"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="66"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="58"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="69"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="61"/>
       <c r="AV50" s="21"/>
     </row>
     <row r="51" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19025,22 +19520,22 @@
       <c r="K52" s="3"/>
       <c r="L52" s="11"/>
       <c r="M52" s="30"/>
-      <c r="N52" s="43" t="s">
+      <c r="N52" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="44"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="46"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="49"/>
       <c r="S52" s="4"/>
       <c r="T52" s="14"/>
-      <c r="U52" s="51" t="s">
+      <c r="U52" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="V52" s="52"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="54"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="57"/>
       <c r="AV52" s="21"/>
     </row>
     <row r="53" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19053,16 +19548,16 @@
       <c r="K53" s="3"/>
       <c r="L53" s="11"/>
       <c r="M53" s="12"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="50"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="58"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="53"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="AV53" s="21"/>
     </row>
     <row r="54" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19080,22 +19575,22 @@
       <c r="K55" s="3"/>
       <c r="L55" s="11"/>
       <c r="M55" s="30"/>
-      <c r="N55" s="43" t="s">
+      <c r="N55" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="44"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="46"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="49"/>
       <c r="S55" s="4"/>
       <c r="T55" s="14"/>
-      <c r="U55" s="51" t="s">
+      <c r="U55" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="V55" s="52"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="54"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="57"/>
       <c r="AV55" s="21"/>
     </row>
     <row r="56" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19108,16 +19603,16 @@
       <c r="K56" s="3"/>
       <c r="L56" s="11"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="50"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="58"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="53"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="61"/>
       <c r="AV56" s="21"/>
     </row>
     <row r="57" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19135,22 +19630,22 @@
       <c r="K58" s="3"/>
       <c r="L58" s="11"/>
       <c r="M58" s="30"/>
-      <c r="N58" s="43" t="s">
+      <c r="N58" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O58" s="44"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="46"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="49"/>
       <c r="S58" s="4"/>
       <c r="T58" s="14"/>
-      <c r="U58" s="51" t="s">
+      <c r="U58" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="V58" s="52"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="54"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="57"/>
       <c r="AV58" s="21"/>
     </row>
     <row r="59" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19163,16 +19658,16 @@
       <c r="K59" s="3"/>
       <c r="L59" s="11"/>
       <c r="M59" s="32"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="50"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="58"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="53"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="61"/>
       <c r="AV59" s="21"/>
     </row>
     <row r="60" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19184,22 +19679,22 @@
       <c r="D61" s="9"/>
       <c r="E61" s="30"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="49"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="51" t="s">
+      <c r="N61" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="O61" s="52"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="54"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="57"/>
       <c r="AV61" s="21"/>
     </row>
     <row r="62" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19207,18 +19702,18 @@
       <c r="D62" s="9"/>
       <c r="E62" s="28"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="53"/>
       <c r="L62" s="28"/>
       <c r="M62" s="12"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="61"/>
       <c r="AV62" s="21"/>
     </row>
     <row r="63" spans="3:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19236,22 +19731,22 @@
       <c r="K64" s="3"/>
       <c r="L64" s="11"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="59" t="s">
+      <c r="N64" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="62"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="65"/>
       <c r="S64" s="4"/>
       <c r="T64" s="14"/>
-      <c r="U64" s="51" t="s">
+      <c r="U64" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="V64" s="52"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="53"/>
-      <c r="Y64" s="54"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="57"/>
       <c r="AV64" s="21"/>
     </row>
     <row r="65" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19264,16 +19759,16 @@
       <c r="K65" s="3"/>
       <c r="L65" s="11"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="66"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="58"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="69"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="60"/>
+      <c r="Y65" s="61"/>
       <c r="AV65" s="21"/>
     </row>
     <row r="66" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19291,22 +19786,22 @@
       <c r="K67" s="3"/>
       <c r="L67" s="11"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="43" t="s">
+      <c r="N67" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O67" s="44"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="46"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="49"/>
       <c r="S67" s="4"/>
       <c r="T67" s="14"/>
-      <c r="U67" s="51" t="s">
+      <c r="U67" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="V67" s="52"/>
-      <c r="W67" s="53"/>
-      <c r="X67" s="53"/>
-      <c r="Y67" s="54"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="57"/>
       <c r="AV67" s="21"/>
     </row>
     <row r="68" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19319,16 +19814,16 @@
       <c r="K68" s="3"/>
       <c r="L68" s="11"/>
       <c r="M68" s="12"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="50"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="57"/>
-      <c r="X68" s="57"/>
-      <c r="Y68" s="58"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="53"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="60"/>
+      <c r="X68" s="60"/>
+      <c r="Y68" s="61"/>
       <c r="AV68" s="21"/>
     </row>
     <row r="69" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19346,22 +19841,22 @@
       <c r="K70" s="3"/>
       <c r="L70" s="11"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="43" t="s">
+      <c r="N70" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="O70" s="44"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="46"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="49"/>
       <c r="S70" s="4"/>
       <c r="T70" s="14"/>
-      <c r="U70" s="51" t="s">
+      <c r="U70" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="V70" s="52"/>
-      <c r="W70" s="53"/>
-      <c r="X70" s="53"/>
-      <c r="Y70" s="54"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="57"/>
       <c r="AV70" s="21"/>
     </row>
     <row r="71" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19374,16 +19869,16 @@
       <c r="K71" s="3"/>
       <c r="L71" s="11"/>
       <c r="M71" s="12"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="50"/>
-      <c r="U71" s="55"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="57"/>
-      <c r="Y71" s="58"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="53"/>
+      <c r="U71" s="58"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="61"/>
       <c r="AV71" s="21"/>
     </row>
     <row r="72" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19401,22 +19896,22 @@
       <c r="K73" s="3"/>
       <c r="L73" s="11"/>
       <c r="M73" s="30"/>
-      <c r="N73" s="43" t="s">
+      <c r="N73" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="44"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="46"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="49"/>
       <c r="S73" s="4"/>
       <c r="T73" s="14"/>
-      <c r="U73" s="51" t="s">
+      <c r="U73" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="V73" s="52"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="53"/>
-      <c r="Y73" s="54"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="56"/>
+      <c r="Y73" s="57"/>
       <c r="AV73" s="21"/>
     </row>
     <row r="74" spans="5:48" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -19429,16 +19924,16 @@
       <c r="K74" s="3"/>
       <c r="L74" s="11"/>
       <c r="M74" s="32"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="50"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="56"/>
-      <c r="W74" s="57"/>
-      <c r="X74" s="57"/>
-      <c r="Y74" s="58"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="53"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="60"/>
+      <c r="X74" s="60"/>
+      <c r="Y74" s="61"/>
       <c r="AV74" s="21"/>
     </row>
     <row r="75" spans="5:48" x14ac:dyDescent="0.45">
@@ -19449,21 +19944,21 @@
     <row r="76" spans="5:48" x14ac:dyDescent="0.45">
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="54"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="57"/>
       <c r="AV76" s="21"/>
     </row>
     <row r="77" spans="5:48" x14ac:dyDescent="0.45">
-      <c r="G77" s="55"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="61"/>
       <c r="AV77" s="21"/>
     </row>
     <row r="78" spans="5:48" x14ac:dyDescent="0.45">
@@ -19655,7 +20150,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19663,13 +20158,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -21902,9 +22397,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:AA29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
@@ -21912,15 +22405,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
